--- a/woerterbuch.xlsx
+++ b/woerterbuch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\alex\deutsch\das_woerterbuch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF5A96A-EE9B-4002-AE9C-363F6B8F507D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC80760-5ABE-488B-B57C-07AA65B59A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="349">
   <si>
     <t>Word</t>
   </si>
@@ -159,9 +159,6 @@
     <t>не получаться</t>
   </si>
   <si>
-    <t>sein schiefgegagnen</t>
-  </si>
-  <si>
     <t>dringend</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
     <t>выражения</t>
   </si>
   <si>
-    <t>anzeige</t>
-  </si>
-  <si>
     <t>объявление</t>
   </si>
   <si>
@@ -469,6 +463,615 @@
   </si>
   <si>
     <t>Redemittel</t>
+  </si>
+  <si>
+    <t>Anzeige</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>be-</t>
+  </si>
+  <si>
+    <t>sein schiefgegangen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sein </t>
+  </si>
+  <si>
+    <t>Reisen</t>
+  </si>
+  <si>
+    <t>eigenlich</t>
+  </si>
+  <si>
+    <t>действительно</t>
+  </si>
+  <si>
+    <t>manch</t>
+  </si>
+  <si>
+    <t>некоторый</t>
+  </si>
+  <si>
+    <t>Zurzeit</t>
+  </si>
+  <si>
+    <t>сейчас</t>
+  </si>
+  <si>
+    <t>Unterhaltung</t>
+  </si>
+  <si>
+    <t>общение</t>
+  </si>
+  <si>
+    <t>deshalb</t>
+  </si>
+  <si>
+    <t>поэтому</t>
+  </si>
+  <si>
+    <t>normalerweise</t>
+  </si>
+  <si>
+    <t>обычно</t>
+  </si>
+  <si>
+    <t>bedeuten</t>
+  </si>
+  <si>
+    <t>означать</t>
+  </si>
+  <si>
+    <t>freiheit</t>
+  </si>
+  <si>
+    <t>свобода</t>
+  </si>
+  <si>
+    <t>spannend</t>
+  </si>
+  <si>
+    <t>напряженный</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Wölken</t>
+  </si>
+  <si>
+    <t>Wärme</t>
+  </si>
+  <si>
+    <t>Hitze</t>
+  </si>
+  <si>
+    <t>Gewitter</t>
+  </si>
+  <si>
+    <t>Nebel</t>
+  </si>
+  <si>
+    <t>denn</t>
+  </si>
+  <si>
+    <t>prep</t>
+  </si>
+  <si>
+    <t>облака</t>
+  </si>
+  <si>
+    <t>тепло</t>
+  </si>
+  <si>
+    <t>жара</t>
+  </si>
+  <si>
+    <t>гроза</t>
+  </si>
+  <si>
+    <t>туман</t>
+  </si>
+  <si>
+    <t>потому что</t>
+  </si>
+  <si>
+    <t>leicht</t>
+  </si>
+  <si>
+    <t>слегка</t>
+  </si>
+  <si>
+    <t>betragen</t>
+  </si>
+  <si>
+    <t>составлять</t>
+  </si>
+  <si>
+    <t>teilweise</t>
+  </si>
+  <si>
+    <t>частично</t>
+  </si>
+  <si>
+    <t>neblig</t>
+  </si>
+  <si>
+    <t>туманно</t>
+  </si>
+  <si>
+    <t>raten</t>
+  </si>
+  <si>
+    <t>угадывать</t>
+  </si>
+  <si>
+    <t>unbedingt</t>
+  </si>
+  <si>
+    <t>un-</t>
+  </si>
+  <si>
+    <t>Urlaub</t>
+  </si>
+  <si>
+    <t>отпуск</t>
+  </si>
+  <si>
+    <t>Hemd</t>
+  </si>
+  <si>
+    <t>Anzug</t>
+  </si>
+  <si>
+    <t>Koffer</t>
+  </si>
+  <si>
+    <t>strumphose</t>
+  </si>
+  <si>
+    <t>kleid</t>
+  </si>
+  <si>
+    <t>ding</t>
+  </si>
+  <si>
+    <t>führerschein</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>verfügen</t>
+  </si>
+  <si>
+    <t>рубашка</t>
+  </si>
+  <si>
+    <t>костюм</t>
+  </si>
+  <si>
+    <t>чемодан</t>
+  </si>
+  <si>
+    <t>колготки</t>
+  </si>
+  <si>
+    <t>платье</t>
+  </si>
+  <si>
+    <t>вещь</t>
+  </si>
+  <si>
+    <t>водительские права</t>
+  </si>
+  <si>
+    <t>предлагать</t>
+  </si>
+  <si>
+    <t>обладать</t>
+  </si>
+  <si>
+    <t>ver-</t>
+  </si>
+  <si>
+    <t>b-</t>
+  </si>
+  <si>
+    <t>geld</t>
+  </si>
+  <si>
+    <t>деньги</t>
+  </si>
+  <si>
+    <t>pullover</t>
+  </si>
+  <si>
+    <t>свитер</t>
+  </si>
+  <si>
+    <t>regenschirm</t>
+  </si>
+  <si>
+    <t>зонтик</t>
+  </si>
+  <si>
+    <t>regen</t>
+  </si>
+  <si>
+    <t>дождь</t>
+  </si>
+  <si>
+    <t>sache</t>
+  </si>
+  <si>
+    <t>d-</t>
+  </si>
+  <si>
+    <t>s-</t>
+  </si>
+  <si>
+    <t>gar</t>
+  </si>
+  <si>
+    <t>вообще</t>
+  </si>
+  <si>
+    <t>umtauschen</t>
+  </si>
+  <si>
+    <t>обменять</t>
+  </si>
+  <si>
+    <t>fahrrad</t>
+  </si>
+  <si>
+    <t>велосипед</t>
+  </si>
+  <si>
+    <t>schaufenster</t>
+  </si>
+  <si>
+    <t>fenster</t>
+  </si>
+  <si>
+    <t>витрина</t>
+  </si>
+  <si>
+    <t>окно</t>
+  </si>
+  <si>
+    <t>ausgezeichnet</t>
+  </si>
+  <si>
+    <t>отлично</t>
+  </si>
+  <si>
+    <t>wirklich</t>
+  </si>
+  <si>
+    <t>ein-</t>
+  </si>
+  <si>
+    <t>w-</t>
+  </si>
+  <si>
+    <t>Essen</t>
+  </si>
+  <si>
+    <t>Kaffee</t>
+  </si>
+  <si>
+    <t>Tee</t>
+  </si>
+  <si>
+    <t>Butter</t>
+  </si>
+  <si>
+    <t>Honig</t>
+  </si>
+  <si>
+    <t>Käse</t>
+  </si>
+  <si>
+    <t>Salami</t>
+  </si>
+  <si>
+    <t>schinken</t>
+  </si>
+  <si>
+    <t>ei</t>
+  </si>
+  <si>
+    <t>rührei</t>
+  </si>
+  <si>
+    <t>apfel</t>
+  </si>
+  <si>
+    <t>birne</t>
+  </si>
+  <si>
+    <t>angebot</t>
+  </si>
+  <si>
+    <t>предложение</t>
+  </si>
+  <si>
+    <t>lachs</t>
+  </si>
+  <si>
+    <t>berichten</t>
+  </si>
+  <si>
+    <t>кофе</t>
+  </si>
+  <si>
+    <t>чай</t>
+  </si>
+  <si>
+    <t>масло</t>
+  </si>
+  <si>
+    <t>мед</t>
+  </si>
+  <si>
+    <t>сыр</t>
+  </si>
+  <si>
+    <t>салями</t>
+  </si>
+  <si>
+    <t>ветчина</t>
+  </si>
+  <si>
+    <t>яйцо</t>
+  </si>
+  <si>
+    <t>яичница</t>
+  </si>
+  <si>
+    <t>яблоко</t>
+  </si>
+  <si>
+    <t>груша</t>
+  </si>
+  <si>
+    <t>лосось</t>
+  </si>
+  <si>
+    <t>сообщать</t>
+  </si>
+  <si>
+    <t>hart</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>weich</t>
+  </si>
+  <si>
+    <t>frisch</t>
+  </si>
+  <si>
+    <t>sauer</t>
+  </si>
+  <si>
+    <t>scharf</t>
+  </si>
+  <si>
+    <t>roh</t>
+  </si>
+  <si>
+    <t>твердый</t>
+  </si>
+  <si>
+    <t>старый</t>
+  </si>
+  <si>
+    <t>мягкий</t>
+  </si>
+  <si>
+    <t>свежий</t>
+  </si>
+  <si>
+    <t>кислый</t>
+  </si>
+  <si>
+    <t>острый</t>
+  </si>
+  <si>
+    <t>сырой</t>
+  </si>
+  <si>
+    <t>tasse</t>
+  </si>
+  <si>
+    <t>salz</t>
+  </si>
+  <si>
+    <t>gabel</t>
+  </si>
+  <si>
+    <t>serviette</t>
+  </si>
+  <si>
+    <t>löffer</t>
+  </si>
+  <si>
+    <t>teller</t>
+  </si>
+  <si>
+    <t>pfeffer</t>
+  </si>
+  <si>
+    <t>topf</t>
+  </si>
+  <si>
+    <t>glas</t>
+  </si>
+  <si>
+    <t>messer</t>
+  </si>
+  <si>
+    <t>pfanne</t>
+  </si>
+  <si>
+    <t>schüssel</t>
+  </si>
+  <si>
+    <t>winschtuch</t>
+  </si>
+  <si>
+    <t>büro</t>
+  </si>
+  <si>
+    <t>hobby</t>
+  </si>
+  <si>
+    <t>чашка</t>
+  </si>
+  <si>
+    <t>соль</t>
+  </si>
+  <si>
+    <t>вилка</t>
+  </si>
+  <si>
+    <t>салфетка</t>
+  </si>
+  <si>
+    <t>ложка</t>
+  </si>
+  <si>
+    <t>тарелка</t>
+  </si>
+  <si>
+    <t>перец</t>
+  </si>
+  <si>
+    <t>кастрюля</t>
+  </si>
+  <si>
+    <t>стакан</t>
+  </si>
+  <si>
+    <t>нож</t>
+  </si>
+  <si>
+    <t>сковорода</t>
+  </si>
+  <si>
+    <t>миска</t>
+  </si>
+  <si>
+    <t>полотенце</t>
+  </si>
+  <si>
+    <t>офис</t>
+  </si>
+  <si>
+    <t>хобби</t>
+  </si>
+  <si>
+    <t>flasche</t>
+  </si>
+  <si>
+    <t>бутылка</t>
+  </si>
+  <si>
+    <t>becher</t>
+  </si>
+  <si>
+    <t>блюдо</t>
+  </si>
+  <si>
+    <t>gericht</t>
+  </si>
+  <si>
+    <t>doch</t>
+  </si>
+  <si>
+    <t>хотя</t>
+  </si>
+  <si>
+    <t>außerdem</t>
+  </si>
+  <si>
+    <t>кроме того</t>
+  </si>
+  <si>
+    <t>besonder</t>
+  </si>
+  <si>
+    <t>особенный</t>
+  </si>
+  <si>
+    <t>spitze</t>
+  </si>
+  <si>
+    <t>пик</t>
+  </si>
+  <si>
+    <t>wählen</t>
+  </si>
+  <si>
+    <t>выбирать</t>
+  </si>
+  <si>
+    <t>sofort</t>
+  </si>
+  <si>
+    <t>сразу</t>
+  </si>
+  <si>
+    <t>verschieden</t>
+  </si>
+  <si>
+    <t>другой</t>
+  </si>
+  <si>
+    <t>dünn</t>
+  </si>
+  <si>
+    <t>тонкий</t>
+  </si>
+  <si>
+    <t>nett</t>
+  </si>
+  <si>
+    <t>приятный</t>
+  </si>
+  <si>
+    <t>ruhig</t>
+  </si>
+  <si>
+    <t>тихий</t>
+  </si>
+  <si>
+    <t>ungenießbar</t>
+  </si>
+  <si>
+    <t>невкусный</t>
+  </si>
+  <si>
+    <t>Exercises</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Wrong</t>
   </si>
 </sst>
 </file>
@@ -795,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,7 +1412,7 @@
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -821,8 +1424,14 @@
         <v>6</v>
       </c>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -844,8 +1453,17 @@
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -859,7 +1477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -873,7 +1491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -887,7 +1505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -901,7 +1519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -915,7 +1533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -929,7 +1547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -943,7 +1561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -957,7 +1575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -971,7 +1589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -979,7 +1597,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -988,7 +1606,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -996,7 +1614,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1005,7 +1623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1013,7 +1631,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -1022,7 +1640,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1030,7 +1648,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -1039,7 +1657,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1047,7 +1665,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -1056,7 +1674,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1064,7 +1682,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -1073,7 +1691,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1081,7 +1699,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -1090,9 +1708,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1103,75 +1721,78 @@
       <c r="D19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
       </c>
       <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>47</v>
       </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
         <v>48</v>
       </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
         <v>59</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -1180,99 +1801,99 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>62</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>64</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
         <v>74</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>76</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -1281,15 +1902,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
         <v>75</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>77</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
@@ -1298,15 +1919,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -1315,43 +1936,43 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>80</v>
-      </c>
-      <c r="B34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>82</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
       </c>
       <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
         <v>83</v>
-      </c>
-      <c r="D35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>85</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
@@ -1360,169 +1981,172 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>86</v>
       </c>
-      <c r="B37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
         <v>87</v>
       </c>
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>88</v>
       </c>
-      <c r="B38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
         <v>89</v>
       </c>
-      <c r="D38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>90</v>
       </c>
-      <c r="B39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
         <v>91</v>
       </c>
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>92</v>
       </c>
-      <c r="B40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>93</v>
       </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>94</v>
       </c>
-      <c r="B41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
         <v>121</v>
       </c>
-      <c r="D41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>95</v>
       </c>
-      <c r="B42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
         <v>122</v>
       </c>
-      <c r="D42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>96</v>
       </c>
-      <c r="B43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
         <v>123</v>
       </c>
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>97</v>
       </c>
-      <c r="B44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
         <v>124</v>
       </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>98</v>
       </c>
-      <c r="B45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
         <v>125</v>
       </c>
-      <c r="D45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>99</v>
       </c>
-      <c r="B46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>101</v>
-      </c>
       <c r="B48" t="s">
         <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -1530,13 +2154,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
         <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
@@ -1544,13 +2168,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
@@ -1558,13 +2182,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
@@ -1572,13 +2196,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
@@ -1586,13 +2210,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
@@ -1600,13 +2224,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -1614,13 +2238,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -1628,13 +2252,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
@@ -1642,13 +2266,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
@@ -1656,13 +2280,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B58" t="s">
         <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
@@ -1670,13 +2294,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B59" t="s">
         <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -1684,13 +2308,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B60" t="s">
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
@@ -1698,13 +2322,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
@@ -1712,13 +2336,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B62" t="s">
         <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -1726,13 +2350,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B63" t="s">
         <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
@@ -1740,58 +2364,1558 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>117</v>
       </c>
-      <c r="B64" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
         <v>143</v>
       </c>
-      <c r="D64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>118</v>
       </c>
-      <c r="B65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" t="s">
         <v>144</v>
       </c>
-      <c r="D65" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>119</v>
-      </c>
-      <c r="B66" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66" t="s">
-        <v>145</v>
-      </c>
-      <c r="D66" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>120</v>
-      </c>
-      <c r="B67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" t="s">
-        <v>146</v>
-      </c>
       <c r="D67" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" t="s">
+        <v>152</v>
+      </c>
+      <c r="H68" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" t="s">
+        <v>152</v>
+      </c>
+      <c r="H69" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" t="s">
+        <v>152</v>
+      </c>
+      <c r="H70" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>160</v>
+      </c>
+      <c r="D71" t="s">
+        <v>152</v>
+      </c>
+      <c r="E71" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>161</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>162</v>
+      </c>
+      <c r="D72" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>165</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>166</v>
+      </c>
+      <c r="D74" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
+        <v>168</v>
+      </c>
+      <c r="D75" t="s">
+        <v>152</v>
+      </c>
+      <c r="E75" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" t="s">
+        <v>170</v>
+      </c>
+      <c r="D76" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>173</v>
+      </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
+        <v>180</v>
+      </c>
+      <c r="D77" t="s">
+        <v>152</v>
+      </c>
+      <c r="E77" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>174</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>181</v>
+      </c>
+      <c r="D78" t="s">
+        <v>152</v>
+      </c>
+      <c r="E78" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>182</v>
+      </c>
+      <c r="D79" t="s">
+        <v>152</v>
+      </c>
+      <c r="E79" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>176</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>183</v>
+      </c>
+      <c r="D80" t="s">
+        <v>152</v>
+      </c>
+      <c r="E80" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>177</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>184</v>
+      </c>
+      <c r="D81" t="s">
+        <v>152</v>
+      </c>
+      <c r="E81" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>178</v>
+      </c>
+      <c r="B82" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" t="s">
+        <v>185</v>
+      </c>
+      <c r="D82" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>186</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>188</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
+        <v>189</v>
+      </c>
+      <c r="D84" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>190</v>
+      </c>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D85" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>192</v>
+      </c>
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" t="s">
+        <v>193</v>
+      </c>
+      <c r="D86" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>194</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" t="s">
+        <v>195</v>
+      </c>
+      <c r="D87" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" t="s">
+        <v>152</v>
+      </c>
+      <c r="H88" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>198</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>199</v>
+      </c>
+      <c r="D89" t="s">
+        <v>152</v>
+      </c>
+      <c r="E89" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>209</v>
+      </c>
+      <c r="D90" t="s">
+        <v>152</v>
+      </c>
+      <c r="E90" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>201</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" t="s">
+        <v>210</v>
+      </c>
+      <c r="D91" t="s">
+        <v>152</v>
+      </c>
+      <c r="E91" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>202</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>211</v>
+      </c>
+      <c r="D92" t="s">
+        <v>152</v>
+      </c>
+      <c r="E92" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>203</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>212</v>
+      </c>
+      <c r="D93" t="s">
+        <v>152</v>
+      </c>
+      <c r="E93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>204</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" t="s">
+        <v>213</v>
+      </c>
+      <c r="D94" t="s">
+        <v>152</v>
+      </c>
+      <c r="E94" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>205</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" t="s">
+        <v>214</v>
+      </c>
+      <c r="D95" t="s">
+        <v>152</v>
+      </c>
+      <c r="E95" t="s">
+        <v>40</v>
+      </c>
+      <c r="H95" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>206</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" t="s">
+        <v>215</v>
+      </c>
+      <c r="D96" t="s">
+        <v>152</v>
+      </c>
+      <c r="E96" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>207</v>
+      </c>
+      <c r="B97" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" t="s">
+        <v>216</v>
+      </c>
+      <c r="D97" t="s">
+        <v>152</v>
+      </c>
+      <c r="H97" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>208</v>
+      </c>
+      <c r="B98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" t="s">
+        <v>217</v>
+      </c>
+      <c r="D98" t="s">
+        <v>152</v>
+      </c>
+      <c r="H98" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>220</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>221</v>
+      </c>
+      <c r="D99" t="s">
+        <v>152</v>
+      </c>
+      <c r="E99" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>222</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" t="s">
+        <v>223</v>
+      </c>
+      <c r="D100" t="s">
+        <v>152</v>
+      </c>
+      <c r="E100" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>224</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s">
+        <v>225</v>
+      </c>
+      <c r="D101" t="s">
+        <v>152</v>
+      </c>
+      <c r="E101" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>226</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>227</v>
+      </c>
+      <c r="D102" t="s">
+        <v>152</v>
+      </c>
+      <c r="E102" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>228</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D103" t="s">
+        <v>152</v>
+      </c>
+      <c r="E103" t="s">
+        <v>37</v>
+      </c>
+      <c r="H103" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>231</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" t="s">
+        <v>232</v>
+      </c>
+      <c r="D104" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>233</v>
+      </c>
+      <c r="B105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" t="s">
+        <v>234</v>
+      </c>
+      <c r="D105" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>235</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
+        <v>236</v>
+      </c>
+      <c r="D106" t="s">
+        <v>152</v>
+      </c>
+      <c r="E106" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>237</v>
+      </c>
+      <c r="B107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" t="s">
+        <v>239</v>
+      </c>
+      <c r="D107" t="s">
+        <v>152</v>
+      </c>
+      <c r="E107" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>238</v>
+      </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" t="s">
+        <v>240</v>
+      </c>
+      <c r="D108" t="s">
+        <v>152</v>
+      </c>
+      <c r="E108" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>241</v>
+      </c>
+      <c r="B109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" t="s">
+        <v>242</v>
+      </c>
+      <c r="D109" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>243</v>
+      </c>
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" t="s">
+        <v>154</v>
+      </c>
+      <c r="D110" t="s">
+        <v>152</v>
+      </c>
+      <c r="H110" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>247</v>
+      </c>
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s">
+        <v>262</v>
+      </c>
+      <c r="D111" t="s">
+        <v>246</v>
+      </c>
+      <c r="E111" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>248</v>
+      </c>
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" t="s">
+        <v>263</v>
+      </c>
+      <c r="D112" t="s">
+        <v>246</v>
+      </c>
+      <c r="E112" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>249</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s">
+        <v>264</v>
+      </c>
+      <c r="D113" t="s">
+        <v>246</v>
+      </c>
+      <c r="E113" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>250</v>
+      </c>
+      <c r="B114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" t="s">
+        <v>265</v>
+      </c>
+      <c r="D114" t="s">
+        <v>246</v>
+      </c>
+      <c r="E114" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>251</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" t="s">
+        <v>266</v>
+      </c>
+      <c r="D115" t="s">
+        <v>246</v>
+      </c>
+      <c r="E115" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>252</v>
+      </c>
+      <c r="B116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" t="s">
+        <v>267</v>
+      </c>
+      <c r="D116" t="s">
+        <v>246</v>
+      </c>
+      <c r="E116" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>253</v>
+      </c>
+      <c r="B117" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" t="s">
+        <v>268</v>
+      </c>
+      <c r="D117" t="s">
+        <v>246</v>
+      </c>
+      <c r="E117" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>254</v>
+      </c>
+      <c r="B118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" t="s">
+        <v>269</v>
+      </c>
+      <c r="D118" t="s">
+        <v>246</v>
+      </c>
+      <c r="E118" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>255</v>
+      </c>
+      <c r="B119" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" t="s">
+        <v>270</v>
+      </c>
+      <c r="D119" t="s">
+        <v>246</v>
+      </c>
+      <c r="E119" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>256</v>
+      </c>
+      <c r="B120" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" t="s">
+        <v>271</v>
+      </c>
+      <c r="D120" t="s">
+        <v>246</v>
+      </c>
+      <c r="E120" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>257</v>
+      </c>
+      <c r="B121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" t="s">
+        <v>272</v>
+      </c>
+      <c r="D121" t="s">
+        <v>246</v>
+      </c>
+      <c r="E121" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>258</v>
+      </c>
+      <c r="B122" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" t="s">
+        <v>259</v>
+      </c>
+      <c r="D122" t="s">
+        <v>246</v>
+      </c>
+      <c r="E122" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>260</v>
+      </c>
+      <c r="B123" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" t="s">
+        <v>273</v>
+      </c>
+      <c r="D123" t="s">
+        <v>246</v>
+      </c>
+      <c r="E123" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>261</v>
+      </c>
+      <c r="B124" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" t="s">
+        <v>274</v>
+      </c>
+      <c r="D124" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>275</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>282</v>
+      </c>
+      <c r="D125" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>276</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>283</v>
+      </c>
+      <c r="D126" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>277</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>284</v>
+      </c>
+      <c r="D127" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>278</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>285</v>
+      </c>
+      <c r="D128" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>279</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>286</v>
+      </c>
+      <c r="D129" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>280</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>287</v>
+      </c>
+      <c r="D130" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>281</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>288</v>
+      </c>
+      <c r="D131" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>289</v>
+      </c>
+      <c r="B132" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" t="s">
+        <v>304</v>
+      </c>
+      <c r="D132" t="s">
+        <v>246</v>
+      </c>
+      <c r="E132" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>290</v>
+      </c>
+      <c r="B133" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" t="s">
+        <v>305</v>
+      </c>
+      <c r="D133" t="s">
+        <v>246</v>
+      </c>
+      <c r="E133" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>291</v>
+      </c>
+      <c r="B134" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" t="s">
+        <v>306</v>
+      </c>
+      <c r="D134" t="s">
+        <v>246</v>
+      </c>
+      <c r="E134" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>292</v>
+      </c>
+      <c r="B135" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" t="s">
+        <v>307</v>
+      </c>
+      <c r="D135" t="s">
+        <v>246</v>
+      </c>
+      <c r="E135" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>293</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" t="s">
+        <v>308</v>
+      </c>
+      <c r="D136" t="s">
+        <v>246</v>
+      </c>
+      <c r="E136" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>294</v>
+      </c>
+      <c r="B137" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" t="s">
+        <v>309</v>
+      </c>
+      <c r="D137" t="s">
+        <v>246</v>
+      </c>
+      <c r="E137" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>295</v>
+      </c>
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" t="s">
+        <v>310</v>
+      </c>
+      <c r="D138" t="s">
+        <v>246</v>
+      </c>
+      <c r="E138" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>296</v>
+      </c>
+      <c r="B139" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" t="s">
+        <v>311</v>
+      </c>
+      <c r="D139" t="s">
+        <v>246</v>
+      </c>
+      <c r="E139" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>297</v>
+      </c>
+      <c r="B140" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" t="s">
+        <v>312</v>
+      </c>
+      <c r="D140" t="s">
+        <v>246</v>
+      </c>
+      <c r="E140" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>298</v>
+      </c>
+      <c r="B141" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" t="s">
+        <v>313</v>
+      </c>
+      <c r="D141" t="s">
+        <v>246</v>
+      </c>
+      <c r="E141" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>299</v>
+      </c>
+      <c r="B142" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" t="s">
+        <v>314</v>
+      </c>
+      <c r="D142" t="s">
+        <v>246</v>
+      </c>
+      <c r="E142" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>300</v>
+      </c>
+      <c r="B143" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" t="s">
+        <v>315</v>
+      </c>
+      <c r="D143" t="s">
+        <v>246</v>
+      </c>
+      <c r="E143" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>301</v>
+      </c>
+      <c r="B144" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" t="s">
+        <v>316</v>
+      </c>
+      <c r="D144" t="s">
+        <v>246</v>
+      </c>
+      <c r="E144" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>302</v>
+      </c>
+      <c r="B145" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" t="s">
+        <v>317</v>
+      </c>
+      <c r="D145" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>303</v>
+      </c>
+      <c r="B146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" t="s">
+        <v>318</v>
+      </c>
+      <c r="D146" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>319</v>
+      </c>
+      <c r="B147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" t="s">
+        <v>320</v>
+      </c>
+      <c r="D147" t="s">
+        <v>246</v>
+      </c>
+      <c r="E147" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>321</v>
+      </c>
+      <c r="B148" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" t="s">
+        <v>312</v>
+      </c>
+      <c r="D148" t="s">
+        <v>246</v>
+      </c>
+      <c r="E148" t="s">
+        <v>34</v>
+      </c>
+      <c r="H148" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>323</v>
+      </c>
+      <c r="B149" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" t="s">
+        <v>322</v>
+      </c>
+      <c r="D149" t="s">
+        <v>246</v>
+      </c>
+      <c r="E149" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>324</v>
+      </c>
+      <c r="B150" t="s">
+        <v>179</v>
+      </c>
+      <c r="C150" t="s">
+        <v>325</v>
+      </c>
+      <c r="D150" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>326</v>
+      </c>
+      <c r="B151" t="s">
+        <v>179</v>
+      </c>
+      <c r="C151" t="s">
+        <v>327</v>
+      </c>
+      <c r="D151" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>328</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" t="s">
+        <v>329</v>
+      </c>
+      <c r="D152" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>330</v>
+      </c>
+      <c r="B153" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" t="s">
+        <v>331</v>
+      </c>
+      <c r="D153" t="s">
+        <v>246</v>
+      </c>
+      <c r="E153" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>332</v>
+      </c>
+      <c r="B154" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" t="s">
+        <v>333</v>
+      </c>
+      <c r="D154" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>334</v>
+      </c>
+      <c r="B155" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" t="s">
+        <v>335</v>
+      </c>
+      <c r="D155" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>336</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
+        <v>337</v>
+      </c>
+      <c r="D156" t="s">
+        <v>246</v>
+      </c>
+      <c r="H156" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>338</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>339</v>
+      </c>
+      <c r="D157" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>340</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" t="s">
+        <v>341</v>
+      </c>
+      <c r="D158" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>342</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" t="s">
+        <v>343</v>
+      </c>
+      <c r="D159" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>344</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>345</v>
+      </c>
+      <c r="D160" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/woerterbuch.xlsx
+++ b/woerterbuch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\alex\deutsch\das_woerterbuch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC80760-5ABE-488B-B57C-07AA65B59A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF27CD6-D892-472D-A691-B7AFC571371B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="346">
   <si>
     <t>Word</t>
   </si>
@@ -1063,15 +1063,6 @@
   </si>
   <si>
     <t>невкусный</t>
-  </si>
-  <si>
-    <t>Exercises</t>
-  </si>
-  <si>
-    <t>Correct</t>
-  </si>
-  <si>
-    <t>Wrong</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1392,7 @@
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I1" sqref="I1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1427,9 +1418,7 @@
       <c r="H1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>346</v>
-      </c>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1456,12 +1445,8 @@
       <c r="H2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>348</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">

--- a/woerterbuch.xlsx
+++ b/woerterbuch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\alex\deutsch\das_woerterbuch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF27CD6-D892-472D-A691-B7AFC571371B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53655DCC-01DA-49D9-B409-57175E4C3BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,9 +126,6 @@
     <t>снова</t>
   </si>
   <si>
-    <t>Lautschprecher</t>
-  </si>
-  <si>
     <t>der</t>
   </si>
   <si>
@@ -1063,6 +1060,9 @@
   </si>
   <si>
     <t>невкусный</t>
+  </si>
+  <si>
+    <t>Lautsprecher</t>
   </si>
 </sst>
 </file>
@@ -1391,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J2"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -1443,7 +1443,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1576,149 +1576,149 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
         <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
         <v>150</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -1726,13 +1726,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -1740,13 +1740,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
         <v>47</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -1754,47 +1754,47 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
         <v>60</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>61</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -1802,13 +1802,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
@@ -1816,13 +1816,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -1830,13 +1830,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -1844,13 +1844,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -1872,64 +1872,64 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
         <v>76</v>
       </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>77</v>
-      </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
         <v>78</v>
-      </c>
-      <c r="B34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" t="s">
-        <v>79</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -1937,13 +1937,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
@@ -1951,30 +1951,30 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
         <v>82</v>
       </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>83</v>
-      </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
         <v>84</v>
-      </c>
-      <c r="B37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" t="s">
-        <v>85</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
@@ -1982,13 +1982,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
         <v>86</v>
-      </c>
-      <c r="B38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" t="s">
-        <v>87</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -1996,13 +1996,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
         <v>88</v>
-      </c>
-      <c r="B39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" t="s">
-        <v>89</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -2010,13 +2010,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
         <v>90</v>
-      </c>
-      <c r="B40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" t="s">
-        <v>91</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -2024,13 +2024,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -2038,13 +2038,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -2052,13 +2052,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B43" t="s">
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -2066,13 +2066,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s">
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -2080,13 +2080,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
@@ -2094,13 +2094,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
         <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -2108,30 +2108,30 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -2139,13 +2139,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
         <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
@@ -2153,13 +2153,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
@@ -2167,13 +2167,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
@@ -2181,13 +2181,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
@@ -2195,13 +2195,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
@@ -2209,13 +2209,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -2223,13 +2223,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -2237,13 +2237,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
@@ -2251,13 +2251,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
@@ -2265,13 +2265,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B58" t="s">
         <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
@@ -2279,13 +2279,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B59" t="s">
         <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -2293,13 +2293,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B60" t="s">
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
@@ -2307,13 +2307,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
@@ -2321,13 +2321,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s">
         <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -2335,13 +2335,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B63" t="s">
         <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
@@ -2349,13 +2349,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
@@ -2363,13 +2363,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
@@ -2377,13 +2377,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
@@ -2391,13 +2391,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B67" t="s">
         <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
@@ -2405,317 +2405,317 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H68" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
         <v>159</v>
       </c>
-      <c r="B71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" t="s">
-        <v>160</v>
-      </c>
       <c r="D71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
         <v>165</v>
       </c>
-      <c r="B74" t="s">
-        <v>19</v>
-      </c>
-      <c r="C74" t="s">
-        <v>166</v>
-      </c>
       <c r="D74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
         <v>167</v>
       </c>
-      <c r="B75" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" t="s">
-        <v>168</v>
-      </c>
       <c r="D75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B76" t="s">
         <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E77" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D79" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D80" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D81" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>177</v>
+      </c>
+      <c r="B82" t="s">
         <v>178</v>
       </c>
-      <c r="B82" t="s">
-        <v>179</v>
-      </c>
       <c r="C82" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D82" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B83" t="s">
         <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D83" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>187</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
         <v>188</v>
       </c>
-      <c r="B84" t="s">
-        <v>19</v>
-      </c>
-      <c r="C84" t="s">
-        <v>189</v>
-      </c>
       <c r="D84" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B85" t="s">
         <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D85" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B86" t="s">
         <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D86" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>193</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" t="s">
         <v>194</v>
       </c>
-      <c r="B87" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87" t="s">
-        <v>195</v>
-      </c>
       <c r="D87" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B88" t="s">
         <v>14</v>
@@ -2724,1183 +2724,1183 @@
         <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>197</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
         <v>198</v>
       </c>
-      <c r="B89" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" t="s">
-        <v>199</v>
-      </c>
       <c r="D89" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B90" t="s">
         <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D90" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H95" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B97" t="s">
         <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H97" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B98" t="s">
         <v>19</v>
       </c>
       <c r="C98" t="s">
+        <v>216</v>
+      </c>
+      <c r="D98" t="s">
+        <v>151</v>
+      </c>
+      <c r="H98" t="s">
         <v>217</v>
-      </c>
-      <c r="D98" t="s">
-        <v>152</v>
-      </c>
-      <c r="H98" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>219</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
         <v>220</v>
       </c>
-      <c r="B99" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" t="s">
-        <v>221</v>
-      </c>
       <c r="D99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>221</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" t="s">
         <v>222</v>
       </c>
-      <c r="B100" t="s">
-        <v>10</v>
-      </c>
-      <c r="C100" t="s">
-        <v>223</v>
-      </c>
       <c r="D100" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>223</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s">
         <v>224</v>
       </c>
-      <c r="B101" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" t="s">
-        <v>225</v>
-      </c>
       <c r="D101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>225</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
         <v>226</v>
       </c>
-      <c r="B102" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102" t="s">
-        <v>227</v>
-      </c>
       <c r="D102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H103" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B104" t="s">
         <v>14</v>
       </c>
       <c r="C104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D104" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>232</v>
+      </c>
+      <c r="B105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" t="s">
         <v>233</v>
       </c>
-      <c r="B105" t="s">
-        <v>19</v>
-      </c>
-      <c r="C105" t="s">
-        <v>234</v>
-      </c>
       <c r="D105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>234</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
         <v>235</v>
       </c>
-      <c r="B106" t="s">
-        <v>10</v>
-      </c>
-      <c r="C106" t="s">
-        <v>236</v>
-      </c>
       <c r="D106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D107" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D108" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B109" t="s">
         <v>14</v>
       </c>
       <c r="C109" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B110" t="s">
         <v>14</v>
       </c>
       <c r="C110" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H110" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D111" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D112" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D113" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B114" t="s">
         <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D114" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D115" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D116" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D117" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B118" t="s">
         <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D118" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
       </c>
       <c r="C119" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D119" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E119" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D120" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D121" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
+        <v>257</v>
+      </c>
+      <c r="B122" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" t="s">
         <v>258</v>
       </c>
-      <c r="B122" t="s">
-        <v>10</v>
-      </c>
-      <c r="C122" t="s">
-        <v>259</v>
-      </c>
       <c r="D122" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B123" t="s">
         <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D123" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B124" t="s">
         <v>19</v>
       </c>
       <c r="C124" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D124" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B125" t="s">
         <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D125" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B126" t="s">
         <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D126" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B127" t="s">
         <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D127" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B128" t="s">
         <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D128" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B129" t="s">
         <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D129" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B130" t="s">
         <v>13</v>
       </c>
       <c r="C130" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D130" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B131" t="s">
         <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D131" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B132" t="s">
         <v>10</v>
       </c>
       <c r="C132" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D132" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E132" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B133" t="s">
         <v>10</v>
       </c>
       <c r="C133" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D133" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E133" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B134" t="s">
         <v>10</v>
       </c>
       <c r="C134" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D134" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E134" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D135" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B136" t="s">
         <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D136" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B137" t="s">
         <v>10</v>
       </c>
       <c r="C137" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B138" t="s">
         <v>10</v>
       </c>
       <c r="C138" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D138" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B139" t="s">
         <v>10</v>
       </c>
       <c r="C139" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D139" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B140" t="s">
         <v>10</v>
       </c>
       <c r="C140" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D140" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B141" t="s">
         <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D141" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B142" t="s">
         <v>10</v>
       </c>
       <c r="C142" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D142" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B143" t="s">
         <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D143" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E143" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B144" t="s">
         <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D144" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E144" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B145" t="s">
         <v>10</v>
       </c>
       <c r="C145" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D145" t="s">
         <v>12</v>
       </c>
       <c r="E145" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B146" t="s">
         <v>10</v>
       </c>
       <c r="C146" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D146" t="s">
         <v>12</v>
       </c>
       <c r="E146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>318</v>
+      </c>
+      <c r="B147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" t="s">
         <v>319</v>
       </c>
-      <c r="B147" t="s">
-        <v>10</v>
-      </c>
-      <c r="C147" t="s">
-        <v>320</v>
-      </c>
       <c r="D147" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E147" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
       </c>
       <c r="C148" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D148" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E148" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H148" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B149" t="s">
         <v>10</v>
       </c>
       <c r="C149" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D149" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E149" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
+        <v>323</v>
+      </c>
+      <c r="B150" t="s">
+        <v>178</v>
+      </c>
+      <c r="C150" t="s">
         <v>324</v>
       </c>
-      <c r="B150" t="s">
-        <v>179</v>
-      </c>
-      <c r="C150" t="s">
-        <v>325</v>
-      </c>
       <c r="D150" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>325</v>
+      </c>
+      <c r="B151" t="s">
+        <v>178</v>
+      </c>
+      <c r="C151" t="s">
         <v>326</v>
       </c>
-      <c r="B151" t="s">
-        <v>179</v>
-      </c>
-      <c r="C151" t="s">
-        <v>327</v>
-      </c>
       <c r="D151" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B152" t="s">
         <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D152" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
+        <v>329</v>
+      </c>
+      <c r="B153" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" t="s">
         <v>330</v>
       </c>
-      <c r="B153" t="s">
-        <v>10</v>
-      </c>
-      <c r="C153" t="s">
-        <v>331</v>
-      </c>
       <c r="D153" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
+        <v>331</v>
+      </c>
+      <c r="B154" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" t="s">
         <v>332</v>
       </c>
-      <c r="B154" t="s">
-        <v>19</v>
-      </c>
-      <c r="C154" t="s">
-        <v>333</v>
-      </c>
       <c r="D154" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B155" t="s">
         <v>14</v>
       </c>
       <c r="C155" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D155" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B156" t="s">
         <v>13</v>
       </c>
       <c r="C156" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D156" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H156" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B157" t="s">
         <v>13</v>
       </c>
       <c r="C157" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D157" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B158" t="s">
         <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D158" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B159" t="s">
         <v>13</v>
       </c>
       <c r="C159" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D159" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B160" t="s">
         <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D160" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/woerterbuch.xlsx
+++ b/woerterbuch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\alex\deutsch\das_woerterbuch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53655DCC-01DA-49D9-B409-57175E4C3BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FACC5A3-AF0D-4B84-B1A2-85777A885F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,9 +243,6 @@
     <t>Versammlung</t>
   </si>
   <si>
-    <t>Beschprechung</t>
-  </si>
-  <si>
     <t>собрание</t>
   </si>
   <si>
@@ -1063,6 +1060,9 @@
   </si>
   <si>
     <t>Lautsprecher</t>
+  </si>
+  <si>
+    <t>Besprechung</t>
   </si>
 </sst>
 </file>
@@ -1391,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -1443,7 +1443,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1707,7 +1707,7 @@
         <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1754,7 +1754,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -1878,7 +1878,7 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -1889,13 +1889,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>345</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
@@ -1906,13 +1906,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
         <v>75</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>76</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -1923,13 +1923,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
         <v>77</v>
-      </c>
-      <c r="B34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" t="s">
-        <v>78</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -1937,13 +1937,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
@@ -1951,13 +1951,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
         <v>81</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>82</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
@@ -1968,13 +1968,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
         <v>83</v>
-      </c>
-      <c r="B37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" t="s">
-        <v>84</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
@@ -1982,13 +1982,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
         <v>85</v>
-      </c>
-      <c r="B38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" t="s">
-        <v>86</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -1996,13 +1996,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
         <v>87</v>
-      </c>
-      <c r="B39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" t="s">
-        <v>88</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -2010,13 +2010,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
         <v>89</v>
-      </c>
-      <c r="B40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" t="s">
-        <v>90</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -2024,13 +2024,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -2038,13 +2038,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -2052,13 +2052,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -2066,13 +2066,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s">
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -2080,13 +2080,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
@@ -2094,13 +2094,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
         <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -2108,30 +2108,30 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -2139,13 +2139,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
         <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
@@ -2153,13 +2153,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
@@ -2167,13 +2167,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
@@ -2181,13 +2181,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
@@ -2195,13 +2195,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
@@ -2209,13 +2209,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -2223,13 +2223,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -2237,13 +2237,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
@@ -2251,13 +2251,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
@@ -2265,13 +2265,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s">
         <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
@@ -2279,13 +2279,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
         <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -2293,13 +2293,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B60" t="s">
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
@@ -2307,13 +2307,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
@@ -2321,13 +2321,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B62" t="s">
         <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -2335,13 +2335,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B63" t="s">
         <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
@@ -2349,13 +2349,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
@@ -2363,13 +2363,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
@@ -2377,13 +2377,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
@@ -2391,13 +2391,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" t="s">
         <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
@@ -2405,67 +2405,67 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D70" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
         <v>158</v>
       </c>
-      <c r="B71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" t="s">
-        <v>159</v>
-      </c>
       <c r="D71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E71" t="s">
         <v>36</v>
@@ -2473,58 +2473,58 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
         <v>164</v>
       </c>
-      <c r="B74" t="s">
-        <v>19</v>
-      </c>
-      <c r="C74" t="s">
-        <v>165</v>
-      </c>
       <c r="D74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>165</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
         <v>166</v>
       </c>
-      <c r="B75" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" t="s">
-        <v>167</v>
-      </c>
       <c r="D75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E75" t="s">
         <v>36</v>
@@ -2532,30 +2532,30 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B76" t="s">
         <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D77" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E77" t="s">
         <v>56</v>
@@ -2563,16 +2563,16 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E78" t="s">
         <v>36</v>
@@ -2580,16 +2580,16 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D79" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E79" t="s">
         <v>36</v>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E80" t="s">
         <v>39</v>
@@ -2614,16 +2614,16 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E81" t="s">
         <v>33</v>
@@ -2631,91 +2631,91 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>176</v>
+      </c>
+      <c r="B82" t="s">
         <v>177</v>
       </c>
-      <c r="B82" t="s">
-        <v>178</v>
-      </c>
       <c r="C82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D82" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B83" t="s">
         <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D83" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>186</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
         <v>187</v>
       </c>
-      <c r="B84" t="s">
-        <v>19</v>
-      </c>
-      <c r="C84" t="s">
-        <v>188</v>
-      </c>
       <c r="D84" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B85" t="s">
         <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B86" t="s">
         <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D86" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>192</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" t="s">
         <v>193</v>
       </c>
-      <c r="B87" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87" t="s">
-        <v>194</v>
-      </c>
       <c r="D87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B88" t="s">
         <v>14</v>
@@ -2724,24 +2724,24 @@
         <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H88" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>196</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
         <v>197</v>
       </c>
-      <c r="B89" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" t="s">
-        <v>198</v>
-      </c>
       <c r="D89" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E89" t="s">
         <v>33</v>
@@ -2749,16 +2749,16 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B90" t="s">
         <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D90" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E90" t="s">
         <v>39</v>
@@ -2766,16 +2766,16 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D91" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E91" t="s">
         <v>33</v>
@@ -2783,16 +2783,16 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E92" t="s">
         <v>33</v>
@@ -2800,16 +2800,16 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E93" t="s">
         <v>36</v>
@@ -2817,16 +2817,16 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E94" t="s">
         <v>39</v>
@@ -2834,36 +2834,36 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E95" t="s">
         <v>39</v>
       </c>
       <c r="H95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D96" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E96" t="s">
         <v>33</v>
@@ -2871,50 +2871,50 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B97" t="s">
         <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H97" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B98" t="s">
         <v>19</v>
       </c>
       <c r="C98" t="s">
+        <v>215</v>
+      </c>
+      <c r="D98" t="s">
+        <v>150</v>
+      </c>
+      <c r="H98" t="s">
         <v>216</v>
-      </c>
-      <c r="D98" t="s">
-        <v>151</v>
-      </c>
-      <c r="H98" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>218</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
         <v>219</v>
       </c>
-      <c r="B99" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" t="s">
-        <v>220</v>
-      </c>
       <c r="D99" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E99" t="s">
         <v>39</v>
@@ -2922,16 +2922,16 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>220</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" t="s">
         <v>221</v>
       </c>
-      <c r="B100" t="s">
-        <v>10</v>
-      </c>
-      <c r="C100" t="s">
-        <v>222</v>
-      </c>
       <c r="D100" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E100" t="s">
         <v>33</v>
@@ -2939,16 +2939,16 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>222</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s">
         <v>223</v>
       </c>
-      <c r="B101" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" t="s">
-        <v>224</v>
-      </c>
       <c r="D101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E101" t="s">
         <v>33</v>
@@ -2956,16 +2956,16 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>224</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
         <v>225</v>
       </c>
-      <c r="B102" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102" t="s">
-        <v>226</v>
-      </c>
       <c r="D102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E102" t="s">
         <v>33</v>
@@ -2973,64 +2973,64 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D103" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E103" t="s">
         <v>36</v>
       </c>
       <c r="H103" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B104" t="s">
         <v>14</v>
       </c>
       <c r="C104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>231</v>
+      </c>
+      <c r="B105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" t="s">
         <v>232</v>
       </c>
-      <c r="B105" t="s">
-        <v>19</v>
-      </c>
-      <c r="C105" t="s">
-        <v>233</v>
-      </c>
       <c r="D105" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>233</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
         <v>234</v>
       </c>
-      <c r="B106" t="s">
-        <v>10</v>
-      </c>
-      <c r="C106" t="s">
-        <v>235</v>
-      </c>
       <c r="D106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E106" t="s">
         <v>39</v>
@@ -3038,16 +3038,16 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E107" t="s">
         <v>39</v>
@@ -3055,16 +3055,16 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E108" t="s">
         <v>39</v>
@@ -3072,47 +3072,47 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B109" t="s">
         <v>14</v>
       </c>
       <c r="C109" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B110" t="s">
         <v>14</v>
       </c>
       <c r="C110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D110" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H110" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D111" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E111" t="s">
         <v>33</v>
@@ -3120,16 +3120,16 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D112" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E112" t="s">
         <v>33</v>
@@ -3137,16 +3137,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D113" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E113" t="s">
         <v>36</v>
@@ -3154,16 +3154,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B114" t="s">
         <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D114" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E114" t="s">
         <v>33</v>
@@ -3171,16 +3171,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D115" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E115" t="s">
         <v>33</v>
@@ -3188,16 +3188,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D116" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E116" t="s">
         <v>36</v>
@@ -3205,16 +3205,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D117" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E117" t="s">
         <v>33</v>
@@ -3222,16 +3222,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B118" t="s">
         <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D118" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E118" t="s">
         <v>39</v>
@@ -3239,16 +3239,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
       </c>
       <c r="C119" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D119" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E119" t="s">
         <v>39</v>
@@ -3256,16 +3256,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D120" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E120" t="s">
         <v>33</v>
@@ -3273,16 +3273,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D121" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E121" t="s">
         <v>36</v>
@@ -3290,16 +3290,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
+        <v>256</v>
+      </c>
+      <c r="B122" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" t="s">
         <v>257</v>
       </c>
-      <c r="B122" t="s">
-        <v>10</v>
-      </c>
-      <c r="C122" t="s">
-        <v>258</v>
-      </c>
       <c r="D122" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E122" t="s">
         <v>39</v>
@@ -3307,16 +3307,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B123" t="s">
         <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D123" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E123" t="s">
         <v>33</v>
@@ -3324,128 +3324,128 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B124" t="s">
         <v>19</v>
       </c>
       <c r="C124" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D124" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B125" t="s">
         <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D125" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B126" t="s">
         <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D126" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B127" t="s">
         <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D127" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B128" t="s">
         <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D128" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B129" t="s">
         <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D129" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B130" t="s">
         <v>13</v>
       </c>
       <c r="C130" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D130" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B131" t="s">
         <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D131" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B132" t="s">
         <v>10</v>
       </c>
       <c r="C132" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D132" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E132" t="s">
         <v>36</v>
@@ -3453,16 +3453,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B133" t="s">
         <v>10</v>
       </c>
       <c r="C133" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D133" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E133" t="s">
         <v>39</v>
@@ -3470,16 +3470,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B134" t="s">
         <v>10</v>
       </c>
       <c r="C134" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D134" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E134" t="s">
         <v>36</v>
@@ -3487,16 +3487,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D135" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E135" t="s">
         <v>36</v>
@@ -3504,16 +3504,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B136" t="s">
         <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D136" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E136" t="s">
         <v>33</v>
@@ -3521,16 +3521,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B137" t="s">
         <v>10</v>
       </c>
       <c r="C137" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E137" t="s">
         <v>33</v>
@@ -3538,16 +3538,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B138" t="s">
         <v>10</v>
       </c>
       <c r="C138" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D138" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E138" t="s">
         <v>33</v>
@@ -3555,16 +3555,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B139" t="s">
         <v>10</v>
       </c>
       <c r="C139" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D139" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E139" t="s">
         <v>33</v>
@@ -3572,16 +3572,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B140" t="s">
         <v>10</v>
       </c>
       <c r="C140" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D140" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E140" t="s">
         <v>39</v>
@@ -3589,16 +3589,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B141" t="s">
         <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D141" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E141" t="s">
         <v>39</v>
@@ -3606,16 +3606,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B142" t="s">
         <v>10</v>
       </c>
       <c r="C142" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D142" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E142" t="s">
         <v>36</v>
@@ -3623,16 +3623,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B143" t="s">
         <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D143" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E143" t="s">
         <v>36</v>
@@ -3640,16 +3640,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B144" t="s">
         <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D144" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E144" t="s">
         <v>39</v>
@@ -3657,13 +3657,13 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B145" t="s">
         <v>10</v>
       </c>
       <c r="C145" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D145" t="s">
         <v>12</v>
@@ -3674,13 +3674,13 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B146" t="s">
         <v>10</v>
       </c>
       <c r="C146" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D146" t="s">
         <v>12</v>
@@ -3691,16 +3691,16 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>317</v>
+      </c>
+      <c r="B147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" t="s">
         <v>318</v>
       </c>
-      <c r="B147" t="s">
-        <v>10</v>
-      </c>
-      <c r="C147" t="s">
-        <v>319</v>
-      </c>
       <c r="D147" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E147" t="s">
         <v>36</v>
@@ -3708,36 +3708,36 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
       </c>
       <c r="C148" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D148" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E148" t="s">
         <v>33</v>
       </c>
       <c r="H148" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B149" t="s">
         <v>10</v>
       </c>
       <c r="C149" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D149" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E149" t="s">
         <v>39</v>
@@ -3745,58 +3745,58 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
+        <v>322</v>
+      </c>
+      <c r="B150" t="s">
+        <v>177</v>
+      </c>
+      <c r="C150" t="s">
         <v>323</v>
       </c>
-      <c r="B150" t="s">
-        <v>178</v>
-      </c>
-      <c r="C150" t="s">
-        <v>324</v>
-      </c>
       <c r="D150" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>324</v>
+      </c>
+      <c r="B151" t="s">
+        <v>177</v>
+      </c>
+      <c r="C151" t="s">
         <v>325</v>
       </c>
-      <c r="B151" t="s">
-        <v>178</v>
-      </c>
-      <c r="C151" t="s">
-        <v>326</v>
-      </c>
       <c r="D151" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B152" t="s">
         <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D152" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
+        <v>328</v>
+      </c>
+      <c r="B153" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" t="s">
         <v>329</v>
       </c>
-      <c r="B153" t="s">
-        <v>10</v>
-      </c>
-      <c r="C153" t="s">
-        <v>330</v>
-      </c>
       <c r="D153" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E153" t="s">
         <v>36</v>
@@ -3804,103 +3804,103 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
+        <v>330</v>
+      </c>
+      <c r="B154" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" t="s">
         <v>331</v>
       </c>
-      <c r="B154" t="s">
-        <v>19</v>
-      </c>
-      <c r="C154" t="s">
-        <v>332</v>
-      </c>
       <c r="D154" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B155" t="s">
         <v>14</v>
       </c>
       <c r="C155" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D155" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B156" t="s">
         <v>13</v>
       </c>
       <c r="C156" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D156" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H156" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B157" t="s">
         <v>13</v>
       </c>
       <c r="C157" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D157" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B158" t="s">
         <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D158" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B159" t="s">
         <v>13</v>
       </c>
       <c r="C159" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D159" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B160" t="s">
         <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D160" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/woerterbuch.xlsx
+++ b/woerterbuch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\alex\deutsch\das_woerterbuch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69127E21-1C46-482E-9E39-AE575CB27924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1E273A-D11C-4C18-9AE4-051D5DCF794C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4360" uniqueCount="1450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4472" uniqueCount="1497">
   <si>
     <t>Word</t>
   </si>
@@ -4376,6 +4376,147 @@
   </si>
   <si>
     <t>обстановка</t>
+  </si>
+  <si>
+    <t>aussicht</t>
+  </si>
+  <si>
+    <t>вид (из окна)</t>
+  </si>
+  <si>
+    <t>anzahl</t>
+  </si>
+  <si>
+    <t>количество</t>
+  </si>
+  <si>
+    <t>стена</t>
+  </si>
+  <si>
+    <t>fußweg</t>
+  </si>
+  <si>
+    <t>пешеходная дорожка</t>
+  </si>
+  <si>
+    <t>fahrstuhl</t>
+  </si>
+  <si>
+    <t>лифт</t>
+  </si>
+  <si>
+    <t>lagern</t>
+  </si>
+  <si>
+    <t>хранить</t>
+  </si>
+  <si>
+    <t>traum</t>
+  </si>
+  <si>
+    <t>мечта</t>
+  </si>
+  <si>
+    <t>чудесно</t>
+  </si>
+  <si>
+    <t>traumhaft</t>
+  </si>
+  <si>
+    <t>entfernt</t>
+  </si>
+  <si>
+    <t>удаленный</t>
+  </si>
+  <si>
+    <t>ungefähr</t>
+  </si>
+  <si>
+    <t>приблизительно</t>
+  </si>
+  <si>
+    <t>gegenstand</t>
+  </si>
+  <si>
+    <t>предмет</t>
+  </si>
+  <si>
+    <t>teppich</t>
+  </si>
+  <si>
+    <t>ковер</t>
+  </si>
+  <si>
+    <t>bett</t>
+  </si>
+  <si>
+    <t>tisch</t>
+  </si>
+  <si>
+    <t>stuhl</t>
+  </si>
+  <si>
+    <t>кровать</t>
+  </si>
+  <si>
+    <t>стол</t>
+  </si>
+  <si>
+    <t>стул</t>
+  </si>
+  <si>
+    <t>unzufrieden</t>
+  </si>
+  <si>
+    <t>недовольный</t>
+  </si>
+  <si>
+    <t>geschirrspüler</t>
+  </si>
+  <si>
+    <t>посудомойка</t>
+  </si>
+  <si>
+    <t>flur</t>
+  </si>
+  <si>
+    <t>коридор</t>
+  </si>
+  <si>
+    <t>далеко</t>
+  </si>
+  <si>
+    <t>weit</t>
+  </si>
+  <si>
+    <t>eingang</t>
+  </si>
+  <si>
+    <t>вход</t>
+  </si>
+  <si>
+    <t>anteil</t>
+  </si>
+  <si>
+    <t>доля</t>
+  </si>
+  <si>
+    <t>gegensatz</t>
+  </si>
+  <si>
+    <t>напротив</t>
+  </si>
+  <si>
+    <t>durchschnitt</t>
+  </si>
+  <si>
+    <t>среднее</t>
+  </si>
+  <si>
+    <t>r-</t>
+  </si>
+  <si>
+    <t>l-</t>
   </si>
 </sst>
 </file>
@@ -4702,10 +4843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J305"/>
+  <dimension ref="A1:J328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="D312" sqref="D312"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5464,7 +5605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -5478,7 +5619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -5492,7 +5633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>99</v>
       </c>
@@ -5506,7 +5647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -5520,7 +5661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>101</v>
       </c>
@@ -5534,7 +5675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -5548,7 +5689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -5562,7 +5703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>104</v>
       </c>
@@ -5576,7 +5717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -5590,7 +5731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>106</v>
       </c>
@@ -5604,7 +5745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>107</v>
       </c>
@@ -5618,7 +5759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>108</v>
       </c>
@@ -5631,8 +5772,11 @@
       <c r="D60" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>109</v>
       </c>
@@ -5646,7 +5790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>110</v>
       </c>
@@ -5660,7 +5804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>111</v>
       </c>
@@ -5674,7 +5818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -5969,6 +6113,9 @@
       <c r="D82" t="s">
         <v>149</v>
       </c>
+      <c r="H82" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -8763,6 +8910,9 @@
       <c r="G219" t="s">
         <v>784</v>
       </c>
+      <c r="H219" t="s">
+        <v>1495</v>
+      </c>
       <c r="I219" t="s">
         <v>1360</v>
       </c>
@@ -9997,6 +10147,9 @@
       <c r="G266" t="s">
         <v>1168</v>
       </c>
+      <c r="H266" t="s">
+        <v>242</v>
+      </c>
       <c r="I266" t="s">
         <v>1359</v>
       </c>
@@ -10623,6 +10776,376 @@
       </c>
       <c r="E305" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B306" t="s">
+        <v>9</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E306" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B307" t="s">
+        <v>9</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E307" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B308" t="s">
+        <v>9</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E308" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B309" t="s">
+        <v>9</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D309" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E309" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B310" t="s">
+        <v>9</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E310" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B311" t="s">
+        <v>18</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B312" t="s">
+        <v>9</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E312" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B313" t="s">
+        <v>13</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B314" t="s">
+        <v>12</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B315" t="s">
+        <v>13</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B316" t="s">
+        <v>9</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E316" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B317" t="s">
+        <v>9</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E317" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B318" t="s">
+        <v>9</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E318" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B319" t="s">
+        <v>9</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E319" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B320" t="s">
+        <v>9</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E320" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B321" t="s">
+        <v>12</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B322" t="s">
+        <v>9</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E322" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B323" t="s">
+        <v>9</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E323" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B324" t="s">
+        <v>13</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B325" t="s">
+        <v>9</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E325" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B326" t="s">
+        <v>9</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E326" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B327" t="s">
+        <v>13</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B328" t="s">
+        <v>9</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E328" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/woerterbuch.xlsx
+++ b/woerterbuch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\alex\deutsch\das_woerterbuch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1E273A-D11C-4C18-9AE4-051D5DCF794C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519430CC-827B-4D20-A2CD-11A15D74FA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4472" uniqueCount="1497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4561" uniqueCount="1532">
   <si>
     <t>Word</t>
   </si>
@@ -4423,9 +4423,6 @@
     <t>traumhaft</t>
   </si>
   <si>
-    <t>entfernt</t>
-  </si>
-  <si>
     <t>удаленный</t>
   </si>
   <si>
@@ -4517,6 +4514,114 @@
   </si>
   <si>
     <t>l-</t>
+  </si>
+  <si>
+    <t>bummeln</t>
+  </si>
+  <si>
+    <t>überraschung</t>
+  </si>
+  <si>
+    <t>неожиданность</t>
+  </si>
+  <si>
+    <t>weil</t>
+  </si>
+  <si>
+    <t>während</t>
+  </si>
+  <si>
+    <t>seit den</t>
+  </si>
+  <si>
+    <t>solange</t>
+  </si>
+  <si>
+    <t>wobei</t>
+  </si>
+  <si>
+    <t>dadurch</t>
+  </si>
+  <si>
+    <t>во время того, как</t>
+  </si>
+  <si>
+    <t>после того, как</t>
+  </si>
+  <si>
+    <t>в то время как</t>
+  </si>
+  <si>
+    <t>при этом</t>
+  </si>
+  <si>
+    <t>благодаря тому</t>
+  </si>
+  <si>
+    <t>besichtigen</t>
+  </si>
+  <si>
+    <t>schrank</t>
+  </si>
+  <si>
+    <t>regel</t>
+  </si>
+  <si>
+    <t>sicherheit</t>
+  </si>
+  <si>
+    <t>sauberkeit</t>
+  </si>
+  <si>
+    <t>reinigen</t>
+  </si>
+  <si>
+    <t>pflanze</t>
+  </si>
+  <si>
+    <t>осматривать</t>
+  </si>
+  <si>
+    <t>шкаф</t>
+  </si>
+  <si>
+    <t>пол</t>
+  </si>
+  <si>
+    <t>правило</t>
+  </si>
+  <si>
+    <t>безопасность</t>
+  </si>
+  <si>
+    <t>чистота</t>
+  </si>
+  <si>
+    <t>чистить</t>
+  </si>
+  <si>
+    <t>растение</t>
+  </si>
+  <si>
+    <t>leer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пустой </t>
+  </si>
+  <si>
+    <t>lage</t>
+  </si>
+  <si>
+    <t>положение</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>üben</t>
+  </si>
+  <si>
+    <t>упражняться</t>
   </si>
 </sst>
 </file>
@@ -4843,10 +4948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J328"/>
+  <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="O281" sqref="O281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5773,7 +5878,7 @@
         <v>11</v>
       </c>
       <c r="H60" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -8911,7 +9016,7 @@
         <v>784</v>
       </c>
       <c r="H219" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="I219" t="s">
         <v>1360</v>
@@ -10431,6 +10536,9 @@
       <c r="E282" t="s">
         <v>35</v>
       </c>
+      <c r="H282" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
@@ -10910,13 +11018,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1465</v>
+        <v>1529</v>
       </c>
       <c r="B314" t="s">
         <v>12</v>
       </c>
       <c r="C314" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D314" t="s">
         <v>1447</v>
@@ -10924,13 +11032,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B315" t="s">
         <v>13</v>
       </c>
       <c r="C315" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D315" t="s">
         <v>1447</v>
@@ -10938,13 +11046,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B316" t="s">
         <v>9</v>
       </c>
       <c r="C316" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D316" t="s">
         <v>1447</v>
@@ -10955,13 +11063,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B317" t="s">
         <v>9</v>
       </c>
       <c r="C317" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D317" t="s">
         <v>1447</v>
@@ -10972,13 +11080,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B318" t="s">
         <v>9</v>
       </c>
       <c r="C318" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D318" t="s">
         <v>1447</v>
@@ -10989,13 +11097,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B319" t="s">
         <v>9</v>
       </c>
       <c r="C319" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D319" t="s">
         <v>1447</v>
@@ -11006,13 +11114,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B320" t="s">
         <v>9</v>
       </c>
       <c r="C320" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D320" t="s">
         <v>1447</v>
@@ -11021,29 +11129,29 @@
         <v>32</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B321" t="s">
         <v>12</v>
       </c>
       <c r="C321" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="D321" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B322" t="s">
         <v>9</v>
       </c>
       <c r="C322" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="D322" t="s">
         <v>1447</v>
@@ -11052,15 +11160,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B323" t="s">
         <v>9</v>
       </c>
       <c r="C323" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D323" t="s">
         <v>1447</v>
@@ -11069,29 +11177,29 @@
         <v>32</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B324" t="s">
         <v>13</v>
       </c>
       <c r="C324" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D324" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B325" t="s">
         <v>9</v>
       </c>
       <c r="C325" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D325" t="s">
         <v>1447</v>
@@ -11100,15 +11208,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B326" t="s">
         <v>9</v>
       </c>
       <c r="C326" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D326" t="s">
         <v>1447</v>
@@ -11117,35 +11225,337 @@
         <v>32</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B327" t="s">
         <v>13</v>
       </c>
       <c r="C327" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D327" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B328" t="s">
         <v>9</v>
       </c>
       <c r="C328" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D328" t="s">
         <v>1447</v>
       </c>
       <c r="E328" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B329" t="s">
+        <v>18</v>
+      </c>
+      <c r="C329" t="s">
+        <v>521</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B330" t="s">
+        <v>9</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E330" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B331" t="s">
+        <v>176</v>
+      </c>
+      <c r="C331" t="s">
+        <v>182</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1447</v>
+      </c>
+      <c r="H331" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B332" t="s">
+        <v>176</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1447</v>
+      </c>
+      <c r="H332" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B333" t="s">
+        <v>176</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B334" t="s">
+        <v>176</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B335" t="s">
+        <v>176</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1447</v>
+      </c>
+      <c r="H335" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B336" t="s">
+        <v>176</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B337" t="s">
+        <v>18</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B338" t="s">
+        <v>9</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E338" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B339" t="s">
+        <v>9</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E339" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B340" t="s">
+        <v>9</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E340" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B341" t="s">
+        <v>9</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E341" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B342" t="s">
+        <v>9</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E342" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B343" t="s">
+        <v>18</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1447</v>
+      </c>
+      <c r="H343" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B344" t="s">
+        <v>9</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E344" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B345" t="s">
+        <v>12</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B346" t="s">
+        <v>9</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E346" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B347" t="s">
+        <v>18</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1447</v>
       </c>
     </row>
   </sheetData>

--- a/woerterbuch.xlsx
+++ b/woerterbuch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\alex\deutsch\das_woerterbuch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519430CC-827B-4D20-A2CD-11A15D74FA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25398107-F5FA-47D7-9C2E-DA73E0685099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4561" uniqueCount="1532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4560" uniqueCount="1532">
   <si>
     <t>Word</t>
   </si>
@@ -4423,6 +4423,9 @@
     <t>traumhaft</t>
   </si>
   <si>
+    <t>entfernt</t>
+  </si>
+  <si>
     <t>удаленный</t>
   </si>
   <si>
@@ -4613,9 +4616,6 @@
   </si>
   <si>
     <t>положение</t>
-  </si>
-  <si>
-    <t>ab</t>
   </si>
   <si>
     <t>üben</t>
@@ -4950,8 +4950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="O281" sqref="O281"/>
+    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="A315" sqref="A315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5878,7 +5878,7 @@
         <v>11</v>
       </c>
       <c r="H60" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -9016,7 +9016,7 @@
         <v>784</v>
       </c>
       <c r="H219" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="I219" t="s">
         <v>1360</v>
@@ -10536,8 +10536,8 @@
       <c r="E282" t="s">
         <v>35</v>
       </c>
-      <c r="H282" t="s">
-        <v>226</v>
+      <c r="H282">
+        <v>8</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
@@ -11018,13 +11018,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1529</v>
+        <v>1465</v>
       </c>
       <c r="B314" t="s">
         <v>12</v>
       </c>
       <c r="C314" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D314" t="s">
         <v>1447</v>
@@ -11032,13 +11032,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B315" t="s">
         <v>13</v>
       </c>
       <c r="C315" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D315" t="s">
         <v>1447</v>
@@ -11046,13 +11046,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B316" t="s">
         <v>9</v>
       </c>
       <c r="C316" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D316" t="s">
         <v>1447</v>
@@ -11063,13 +11063,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B317" t="s">
         <v>9</v>
       </c>
       <c r="C317" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D317" t="s">
         <v>1447</v>
@@ -11080,13 +11080,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B318" t="s">
         <v>9</v>
       </c>
       <c r="C318" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D318" t="s">
         <v>1447</v>
@@ -11097,13 +11097,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B319" t="s">
         <v>9</v>
       </c>
       <c r="C319" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D319" t="s">
         <v>1447</v>
@@ -11114,13 +11114,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B320" t="s">
         <v>9</v>
       </c>
       <c r="C320" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D320" t="s">
         <v>1447</v>
@@ -11131,13 +11131,13 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B321" t="s">
         <v>12</v>
       </c>
       <c r="C321" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="D321" t="s">
         <v>1447</v>
@@ -11145,13 +11145,13 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B322" t="s">
         <v>9</v>
       </c>
       <c r="C322" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D322" t="s">
         <v>1447</v>
@@ -11162,13 +11162,13 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B323" t="s">
         <v>9</v>
       </c>
       <c r="C323" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D323" t="s">
         <v>1447</v>
@@ -11179,13 +11179,13 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B324" t="s">
         <v>13</v>
       </c>
       <c r="C324" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D324" t="s">
         <v>1447</v>
@@ -11193,13 +11193,13 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B325" t="s">
         <v>9</v>
       </c>
       <c r="C325" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D325" t="s">
         <v>1447</v>
@@ -11210,13 +11210,13 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B326" t="s">
         <v>9</v>
       </c>
       <c r="C326" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="D326" t="s">
         <v>1447</v>
@@ -11227,13 +11227,13 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B327" t="s">
         <v>13</v>
       </c>
       <c r="C327" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D327" t="s">
         <v>1447</v>
@@ -11241,13 +11241,13 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B328" t="s">
         <v>9</v>
       </c>
       <c r="C328" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D328" t="s">
         <v>1447</v>
@@ -11258,7 +11258,7 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B329" t="s">
         <v>18</v>
@@ -11272,13 +11272,13 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B330" t="s">
         <v>9</v>
       </c>
       <c r="C330" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D330" t="s">
         <v>1447</v>
@@ -11289,7 +11289,7 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B331" t="s">
         <v>176</v>
@@ -11306,13 +11306,13 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B332" t="s">
         <v>176</v>
       </c>
       <c r="C332" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D332" t="s">
         <v>1447</v>
@@ -11323,13 +11323,13 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B333" t="s">
         <v>176</v>
       </c>
       <c r="C333" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D333" t="s">
         <v>1447</v>
@@ -11337,13 +11337,13 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B334" t="s">
         <v>176</v>
       </c>
       <c r="C334" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D334" t="s">
         <v>1447</v>
@@ -11351,13 +11351,13 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B335" t="s">
         <v>176</v>
       </c>
       <c r="C335" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D335" t="s">
         <v>1447</v>
@@ -11368,13 +11368,13 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B336" t="s">
         <v>176</v>
       </c>
       <c r="C336" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D336" t="s">
         <v>1447</v>
@@ -11382,13 +11382,13 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B337" t="s">
         <v>18</v>
       </c>
       <c r="C337" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D337" t="s">
         <v>1447</v>
@@ -11396,13 +11396,13 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B338" t="s">
         <v>9</v>
       </c>
       <c r="C338" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D338" t="s">
         <v>1447</v>
@@ -11413,13 +11413,13 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B339" t="s">
         <v>9</v>
       </c>
       <c r="C339" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D339" t="s">
         <v>1447</v>
@@ -11430,13 +11430,13 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B340" t="s">
         <v>9</v>
       </c>
       <c r="C340" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D340" t="s">
         <v>1447</v>
@@ -11447,13 +11447,13 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B341" t="s">
         <v>9</v>
       </c>
       <c r="C341" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D341" t="s">
         <v>1447</v>
@@ -11464,13 +11464,13 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B342" t="s">
         <v>9</v>
       </c>
       <c r="C342" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D342" t="s">
         <v>1447</v>
@@ -11481,30 +11481,30 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B343" t="s">
         <v>18</v>
       </c>
       <c r="C343" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D343" t="s">
         <v>1447</v>
       </c>
       <c r="H343" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B344" t="s">
         <v>9</v>
       </c>
       <c r="C344" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D344" t="s">
         <v>1447</v>
@@ -11515,13 +11515,13 @@
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B345" t="s">
         <v>12</v>
       </c>
       <c r="C345" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D345" t="s">
         <v>1447</v>
@@ -11529,13 +11529,13 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B346" t="s">
         <v>9</v>
       </c>
       <c r="C346" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D346" t="s">
         <v>1447</v>

--- a/woerterbuch.xlsx
+++ b/woerterbuch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\alex\deutsch\das_woerterbuch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3299D048-381A-468F-9779-9AA871FE4A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5810B6C9-F141-4B94-A5F1-63E408426AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4811" uniqueCount="1635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4811" uniqueCount="1636">
   <si>
     <t>Word</t>
   </si>
@@ -4903,9 +4903,6 @@
     <t>sicher</t>
   </si>
   <si>
-    <t>точно</t>
-  </si>
-  <si>
     <t>bestimmt</t>
   </si>
   <si>
@@ -4931,6 +4928,12 @@
   </si>
   <si>
     <t>Z-</t>
+  </si>
+  <si>
+    <t>точно, конечно</t>
+  </si>
+  <si>
+    <t>точно, определенно</t>
   </si>
 </sst>
 </file>
@@ -5259,8 +5262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J398"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
+      <selection activeCell="C400" sqref="C400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5442,7 +5445,7 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -6342,7 +6345,7 @@
         <v>149</v>
       </c>
       <c r="H70" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -12645,7 +12648,7 @@
         <v>13</v>
       </c>
       <c r="C394" t="s">
-        <v>1625</v>
+        <v>1634</v>
       </c>
       <c r="D394" t="s">
         <v>1566</v>
@@ -12656,13 +12659,13 @@
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B395" t="s">
         <v>13</v>
       </c>
       <c r="C395" t="s">
-        <v>1625</v>
+        <v>1635</v>
       </c>
       <c r="D395" t="s">
         <v>1566</v>
@@ -12673,13 +12676,13 @@
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B396" t="s">
         <v>9</v>
       </c>
       <c r="C396" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D396" t="s">
         <v>1566</v>
@@ -12690,13 +12693,13 @@
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B397" t="s">
+        <v>18</v>
+      </c>
+      <c r="C397" t="s">
         <v>1629</v>
-      </c>
-      <c r="B397" t="s">
-        <v>18</v>
-      </c>
-      <c r="C397" t="s">
-        <v>1630</v>
       </c>
       <c r="D397" t="s">
         <v>1566</v>
@@ -12707,13 +12710,13 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B398" t="s">
+        <v>18</v>
+      </c>
+      <c r="C398" t="s">
         <v>1631</v>
-      </c>
-      <c r="B398" t="s">
-        <v>18</v>
-      </c>
-      <c r="C398" t="s">
-        <v>1632</v>
       </c>
       <c r="D398" t="s">
         <v>1566</v>

--- a/woerterbuch.xlsx
+++ b/woerterbuch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\alex\deutsch\das_woerterbuch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F93EF90-DFF0-4738-B1E2-DE2C6F16FC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C801216-94F1-4CBC-957A-F78B119F7B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4924" uniqueCount="1694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4966" uniqueCount="1717">
   <si>
     <t>Word</t>
   </si>
@@ -5108,6 +5108,75 @@
   </si>
   <si>
     <t>v-</t>
+  </si>
+  <si>
+    <t>gebiet</t>
+  </si>
+  <si>
+    <t>область</t>
+  </si>
+  <si>
+    <t>begleiten</t>
+  </si>
+  <si>
+    <t>сопровождать</t>
+  </si>
+  <si>
+    <t>besitzen</t>
+  </si>
+  <si>
+    <t>владеть</t>
+  </si>
+  <si>
+    <t>übernehmen</t>
+  </si>
+  <si>
+    <t>брать на себя </t>
+  </si>
+  <si>
+    <t>Einfluß</t>
+  </si>
+  <si>
+    <t>влияние </t>
+  </si>
+  <si>
+    <t>gemeinsam</t>
+  </si>
+  <si>
+    <t>вместе</t>
+  </si>
+  <si>
+    <t>einzig </t>
+  </si>
+  <si>
+    <t>единственный</t>
+  </si>
+  <si>
+    <t>ein-</t>
+  </si>
+  <si>
+    <t>wecken</t>
+  </si>
+  <si>
+    <t>будить</t>
+  </si>
+  <si>
+    <t>сталкиваться</t>
+  </si>
+  <si>
+    <t>jedoch</t>
+  </si>
+  <si>
+    <t>однако</t>
+  </si>
+  <si>
+    <t>j-</t>
+  </si>
+  <si>
+    <t>deswegen</t>
+  </si>
+  <si>
+    <t>d-w-</t>
   </si>
 </sst>
 </file>
@@ -5459,10 +5528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J427"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="G429" sqref="G429"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="H443" sqref="H443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13316,6 +13386,156 @@
       </c>
       <c r="H427" t="s">
         <v>1693</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B428" t="s">
+        <v>9</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E428" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B429" t="s">
+        <v>18</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B430" t="s">
+        <v>18</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B431" t="s">
+        <v>18</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B432" t="s">
+        <v>9</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E432" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B433" t="s">
+        <v>13</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1705</v>
+      </c>
+      <c r="H433" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B434" t="s">
+        <v>12</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1707</v>
+      </c>
+      <c r="H434" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B435" t="s">
+        <v>18</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B436" t="s">
+        <v>18</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>973</v>
+      </c>
+      <c r="B437" t="s">
+        <v>18</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B438" t="s">
+        <v>13</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1713</v>
+      </c>
+      <c r="H438" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B439" t="s">
+        <v>13</v>
+      </c>
+      <c r="C439" t="s">
+        <v>122</v>
+      </c>
+      <c r="H439" t="s">
+        <v>1716</v>
       </c>
     </row>
   </sheetData>

--- a/woerterbuch.xlsx
+++ b/woerterbuch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\alex\deutsch\das_woerterbuch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C801216-94F1-4CBC-957A-F78B119F7B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4246F295-8B04-4E3A-ABD7-E781B96C740A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Words" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4966" uniqueCount="1717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5023" uniqueCount="1733">
   <si>
     <t>Word</t>
   </si>
@@ -4474,9 +4474,6 @@
     <t>erfolg</t>
   </si>
   <si>
-    <t>erinnen</t>
-  </si>
-  <si>
     <t>erinnerung</t>
   </si>
   <si>
@@ -4852,9 +4849,6 @@
     <t>значить</t>
   </si>
   <si>
-    <t>Merkmal </t>
-  </si>
-  <si>
     <t>признак</t>
   </si>
   <si>
@@ -5177,6 +5171,60 @@
   </si>
   <si>
     <t>d-w-</t>
+  </si>
+  <si>
+    <t>zulassen</t>
+  </si>
+  <si>
+    <t>допускать</t>
+  </si>
+  <si>
+    <t>случайно</t>
+  </si>
+  <si>
+    <t>zufällig </t>
+  </si>
+  <si>
+    <t>verhalten</t>
+  </si>
+  <si>
+    <t>поведение</t>
+  </si>
+  <si>
+    <t>verdienen</t>
+  </si>
+  <si>
+    <t>зарабатывать, заслуживать</t>
+  </si>
+  <si>
+    <t>fachlich</t>
+  </si>
+  <si>
+    <t>профессиональный</t>
+  </si>
+  <si>
+    <t>leistung</t>
+  </si>
+  <si>
+    <t>услуга</t>
+  </si>
+  <si>
+    <t>einig</t>
+  </si>
+  <si>
+    <t>единый</t>
+  </si>
+  <si>
+    <t>erhaltung</t>
+  </si>
+  <si>
+    <t>Сохранение</t>
+  </si>
+  <si>
+    <t>erinnern</t>
+  </si>
+  <si>
+    <t>Merkmal</t>
   </si>
 </sst>
 </file>
@@ -5529,10 +5577,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J439"/>
+  <dimension ref="A1:J447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="H443" sqref="H443"/>
+    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
+      <selection activeCell="A386" sqref="A386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5714,7 +5762,7 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -6003,7 +6051,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -6278,7 +6326,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
@@ -6290,7 +6338,7 @@
         <v>113</v>
       </c>
       <c r="H49" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -6324,7 +6372,7 @@
         <v>113</v>
       </c>
       <c r="H51" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -6366,7 +6414,7 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D54" t="s">
         <v>113</v>
@@ -6847,7 +6895,7 @@
         <v>113</v>
       </c>
       <c r="H83" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -7349,7 +7397,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B115" t="s">
         <v>9</v>
@@ -11720,16 +11768,16 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B319" t="s">
+        <v>18</v>
+      </c>
+      <c r="C319" t="s">
         <v>1506</v>
       </c>
-      <c r="B319" t="s">
-        <v>18</v>
-      </c>
-      <c r="C319" t="s">
-        <v>1507</v>
-      </c>
       <c r="D319" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H319" t="s">
         <v>110</v>
@@ -11743,13 +11791,13 @@
         <v>18</v>
       </c>
       <c r="C320" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H320" t="s">
         <v>1508</v>
-      </c>
-      <c r="D320" t="s">
-        <v>1505</v>
-      </c>
-      <c r="H320" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
@@ -11760,10 +11808,10 @@
         <v>9</v>
       </c>
       <c r="C321" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D321" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E321" t="s">
         <v>33</v>
@@ -11777,10 +11825,10 @@
         <v>12</v>
       </c>
       <c r="C322" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D322" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
@@ -11791,10 +11839,10 @@
         <v>9</v>
       </c>
       <c r="C323" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D323" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E323" t="s">
         <v>32</v>
@@ -11808,10 +11856,10 @@
         <v>9</v>
       </c>
       <c r="C324" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D324" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E324" t="s">
         <v>33</v>
@@ -11825,10 +11873,10 @@
         <v>9</v>
       </c>
       <c r="C325" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D325" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E325" t="s">
         <v>33</v>
@@ -11842,10 +11890,10 @@
         <v>9</v>
       </c>
       <c r="C326" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D326" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E326" t="s">
         <v>33</v>
@@ -11859,10 +11907,10 @@
         <v>12</v>
       </c>
       <c r="C327" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D327" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
@@ -11873,10 +11921,10 @@
         <v>9</v>
       </c>
       <c r="C328" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D328" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E328" t="s">
         <v>32</v>
@@ -11884,30 +11932,30 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1482</v>
+        <v>1731</v>
       </c>
       <c r="B329" t="s">
         <v>18</v>
       </c>
       <c r="C329" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D329" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B330" t="s">
         <v>9</v>
       </c>
       <c r="C330" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D330" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E330" t="s">
         <v>33</v>
@@ -11915,7 +11963,7 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B331" t="s">
         <v>18</v>
@@ -11924,7 +11972,7 @@
         <v>71</v>
       </c>
       <c r="D331" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H331" t="s">
         <v>110</v>
@@ -11932,16 +11980,16 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B332" t="s">
         <v>9</v>
       </c>
       <c r="C332" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D332" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E332" t="s">
         <v>32</v>
@@ -11949,7 +11997,7 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B333" t="s">
         <v>12</v>
@@ -11958,49 +12006,49 @@
         <v>185</v>
       </c>
       <c r="D333" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B334" t="s">
         <v>15</v>
       </c>
       <c r="C334" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D334" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B335" t="s">
         <v>18</v>
       </c>
       <c r="C335" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D335" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B336" t="s">
         <v>9</v>
       </c>
       <c r="C336" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D336" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E336" t="s">
         <v>32</v>
@@ -12008,16 +12056,16 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B337" t="s">
         <v>9</v>
       </c>
       <c r="C337" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D337" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E337" t="s">
         <v>34</v>
@@ -12025,16 +12073,16 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B338" t="s">
         <v>9</v>
       </c>
       <c r="C338" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D338" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E338" t="s">
         <v>32</v>
@@ -12042,16 +12090,16 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B339" t="s">
         <v>9</v>
       </c>
       <c r="C339" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="D339" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E339" t="s">
         <v>32</v>
@@ -12059,16 +12107,16 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B340" t="s">
         <v>9</v>
       </c>
       <c r="C340" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D340" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E340" t="s">
         <v>33</v>
@@ -12076,16 +12124,16 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B341" t="s">
         <v>9</v>
       </c>
       <c r="C341" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D341" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E341" t="s">
         <v>34</v>
@@ -12093,16 +12141,16 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B342" t="s">
         <v>9</v>
       </c>
       <c r="C342" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D342" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E342" t="s">
         <v>32</v>
@@ -12110,16 +12158,16 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B343" t="s">
         <v>9</v>
       </c>
       <c r="C343" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D343" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E343" t="s">
         <v>32</v>
@@ -12127,16 +12175,16 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B344" t="s">
         <v>9</v>
       </c>
       <c r="C344" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D344" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E344" t="s">
         <v>33</v>
@@ -12144,16 +12192,16 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B345" t="s">
         <v>9</v>
       </c>
       <c r="C345" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D345" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E345" t="s">
         <v>33</v>
@@ -12161,35 +12209,35 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B346" t="s">
         <v>13</v>
       </c>
       <c r="C346" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D346" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B347" t="s">
         <v>13</v>
       </c>
       <c r="C347" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D347" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B348" t="s">
         <v>18</v>
@@ -12198,35 +12246,35 @@
         <v>694</v>
       </c>
       <c r="D348" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B349" t="s">
         <v>18</v>
       </c>
       <c r="C349" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D349" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B350" t="s">
         <v>9</v>
       </c>
       <c r="C350" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D350" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E350" t="s">
         <v>33</v>
@@ -12234,44 +12282,44 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B351" t="s">
+        <v>18</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D351" t="s">
         <v>1504</v>
-      </c>
-      <c r="B351" t="s">
-        <v>18</v>
-      </c>
-      <c r="C351" t="s">
-        <v>1537</v>
-      </c>
-      <c r="D351" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B352" t="s">
+        <v>18</v>
+      </c>
+      <c r="C352" t="s">
         <v>1538</v>
       </c>
-      <c r="B352" t="s">
-        <v>18</v>
-      </c>
-      <c r="C352" t="s">
-        <v>1539</v>
-      </c>
       <c r="D352" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B353" t="s">
         <v>9</v>
       </c>
       <c r="C353" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D353" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E353" t="s">
         <v>33</v>
@@ -12279,16 +12327,16 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B354" t="s">
         <v>9</v>
       </c>
       <c r="C354" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D354" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E354" t="s">
         <v>34</v>
@@ -12296,16 +12344,16 @@
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B355" t="s">
         <v>9</v>
       </c>
       <c r="C355" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D355" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E355" t="s">
         <v>34</v>
@@ -12313,30 +12361,30 @@
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B356" t="s">
+        <v>18</v>
+      </c>
+      <c r="C356" t="s">
         <v>1546</v>
       </c>
-      <c r="B356" t="s">
-        <v>18</v>
-      </c>
-      <c r="C356" t="s">
-        <v>1547</v>
-      </c>
       <c r="D356" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B357" t="s">
         <v>9</v>
       </c>
       <c r="C357" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D357" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E357" t="s">
         <v>32</v>
@@ -12344,30 +12392,30 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B358" t="s">
+        <v>18</v>
+      </c>
+      <c r="C358" t="s">
         <v>1550</v>
       </c>
-      <c r="B358" t="s">
-        <v>18</v>
-      </c>
-      <c r="C358" t="s">
-        <v>1551</v>
-      </c>
       <c r="D358" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B359" t="s">
         <v>9</v>
       </c>
       <c r="C359" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D359" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E359" t="s">
         <v>33</v>
@@ -12375,30 +12423,30 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B360" t="s">
         <v>13</v>
       </c>
       <c r="C360" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D360" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B361" t="s">
         <v>9</v>
       </c>
       <c r="C361" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="D361" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E361" t="s">
         <v>33</v>
@@ -12406,16 +12454,16 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B362" t="s">
         <v>9</v>
       </c>
       <c r="C362" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D362" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E362" t="s">
         <v>32</v>
@@ -12423,21 +12471,21 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B363" t="s">
         <v>12</v>
       </c>
       <c r="C363" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D363" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B364" t="s">
         <v>12</v>
@@ -12446,7 +12494,7 @@
         <v>275</v>
       </c>
       <c r="D364" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H364" t="s">
         <v>1302</v>
@@ -12454,16 +12502,16 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B365" t="s">
         <v>13</v>
       </c>
       <c r="C365" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="D365" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H365" t="s">
         <v>183</v>
@@ -12471,16 +12519,16 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B366" t="s">
         <v>13</v>
       </c>
       <c r="C366" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="D366" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H366" t="s">
         <v>110</v>
@@ -12488,16 +12536,16 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B367" t="s">
         <v>9</v>
       </c>
       <c r="C367" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="D367" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E367" t="s">
         <v>33</v>
@@ -12505,16 +12553,16 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B368" t="s">
+        <v>18</v>
+      </c>
+      <c r="C368" t="s">
         <v>1567</v>
       </c>
-      <c r="B368" t="s">
-        <v>18</v>
-      </c>
-      <c r="C368" t="s">
-        <v>1568</v>
-      </c>
       <c r="D368" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H368" t="s">
         <v>1307</v>
@@ -12522,27 +12570,27 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B369" t="s">
+        <v>18</v>
+      </c>
+      <c r="C369" t="s">
         <v>1569</v>
       </c>
-      <c r="B369" t="s">
-        <v>18</v>
-      </c>
-      <c r="C369" t="s">
-        <v>1570</v>
-      </c>
       <c r="D369" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B370" t="s">
         <v>13</v>
       </c>
       <c r="C370" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D370" t="s">
         <v>194</v>
@@ -12550,13 +12598,13 @@
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B371" t="s">
+        <v>18</v>
+      </c>
+      <c r="C371" t="s">
         <v>1579</v>
-      </c>
-      <c r="B371" t="s">
-        <v>18</v>
-      </c>
-      <c r="C371" t="s">
-        <v>1580</v>
       </c>
       <c r="D371" t="s">
         <v>194</v>
@@ -12564,13 +12612,13 @@
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B372" t="s">
+        <v>18</v>
+      </c>
+      <c r="C372" t="s">
         <v>1581</v>
-      </c>
-      <c r="B372" t="s">
-        <v>18</v>
-      </c>
-      <c r="C372" t="s">
-        <v>1582</v>
       </c>
       <c r="D372" t="s">
         <v>194</v>
@@ -12578,13 +12626,13 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B373" t="s">
+        <v>18</v>
+      </c>
+      <c r="C373" t="s">
         <v>1583</v>
-      </c>
-      <c r="B373" t="s">
-        <v>18</v>
-      </c>
-      <c r="C373" t="s">
-        <v>1584</v>
       </c>
       <c r="D373" t="s">
         <v>194</v>
@@ -12592,13 +12640,13 @@
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B374" t="s">
         <v>9</v>
       </c>
       <c r="C374" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D374" t="s">
         <v>194</v>
@@ -12609,13 +12657,13 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B375" t="s">
+        <v>18</v>
+      </c>
+      <c r="C375" t="s">
         <v>1587</v>
-      </c>
-      <c r="B375" t="s">
-        <v>18</v>
-      </c>
-      <c r="C375" t="s">
-        <v>1588</v>
       </c>
       <c r="D375" t="s">
         <v>194</v>
@@ -12623,13 +12671,13 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B376" t="s">
         <v>9</v>
       </c>
       <c r="C376" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D376" t="s">
         <v>194</v>
@@ -12640,7 +12688,7 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B377" t="s">
         <v>9</v>
@@ -12660,13 +12708,13 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B378" t="s">
         <v>9</v>
       </c>
       <c r="C378" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="D378" t="s">
         <v>194</v>
@@ -12677,13 +12725,13 @@
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B379" t="s">
         <v>9</v>
       </c>
       <c r="C379" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="D379" t="s">
         <v>194</v>
@@ -12694,13 +12742,13 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B380" t="s">
         <v>12</v>
       </c>
       <c r="C380" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="D380" t="s">
         <v>11</v>
@@ -12708,13 +12756,13 @@
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B381" t="s">
         <v>13</v>
       </c>
       <c r="C381" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D381" t="s">
         <v>11</v>
@@ -12722,16 +12770,16 @@
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B382" t="s">
         <v>9</v>
       </c>
       <c r="C382" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="D382" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E382" t="s">
         <v>33</v>
@@ -12739,16 +12787,16 @@
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B383" t="s">
         <v>9</v>
       </c>
       <c r="C383" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D383" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E383" t="s">
         <v>34</v>
@@ -12756,16 +12804,16 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B384" t="s">
+        <v>18</v>
+      </c>
+      <c r="C384" t="s">
         <v>1605</v>
       </c>
-      <c r="B384" t="s">
-        <v>18</v>
-      </c>
-      <c r="C384" t="s">
-        <v>1606</v>
-      </c>
       <c r="D384" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
@@ -12776,24 +12824,24 @@
         <v>18</v>
       </c>
       <c r="C385" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D385" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1608</v>
+        <v>1732</v>
       </c>
       <c r="B386" t="s">
         <v>9</v>
       </c>
       <c r="C386" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="D386" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E386" t="s">
         <v>34</v>
@@ -12801,44 +12849,44 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="B387" t="s">
         <v>18</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D387" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="B388" t="s">
         <v>12</v>
       </c>
       <c r="C388" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="D388" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B389" t="s">
         <v>9</v>
       </c>
       <c r="C389" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="D389" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E389" t="s">
         <v>33</v>
@@ -12846,16 +12894,16 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="B390" t="s">
         <v>9</v>
       </c>
       <c r="C390" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="D390" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E390" t="s">
         <v>33</v>
@@ -12863,105 +12911,105 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B391" t="s">
         <v>13</v>
       </c>
       <c r="C391" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="D391" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="B392" t="s">
         <v>18</v>
       </c>
       <c r="C392" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="D392" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="B393" t="s">
         <v>18</v>
       </c>
       <c r="C393" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="D393" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="B394" t="s">
         <v>12</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="D394" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="B395" t="s">
         <v>12</v>
       </c>
       <c r="C395" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D395" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="B396" t="s">
         <v>13</v>
       </c>
       <c r="C396" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="D396" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="B397" t="s">
         <v>18</v>
       </c>
       <c r="C397" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D397" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="B398" t="s">
         <v>9</v>
@@ -12970,7 +13018,7 @@
         <v>1390</v>
       </c>
       <c r="D398" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E398" t="s">
         <v>33</v>
@@ -12978,16 +13026,16 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="B399" t="s">
         <v>9</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="D399" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E399" t="s">
         <v>34</v>
@@ -12995,16 +13043,16 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="B400" t="s">
         <v>9</v>
       </c>
       <c r="C400" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="D400" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E400" t="s">
         <v>34</v>
@@ -13012,100 +13060,100 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="B401" t="s">
         <v>12</v>
       </c>
       <c r="C401" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="D401" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="B402" t="s">
         <v>13</v>
       </c>
       <c r="C402" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="D402" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="B403" t="s">
         <v>12</v>
       </c>
       <c r="C403" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="D403" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="B404" t="s">
         <v>18</v>
       </c>
       <c r="C404" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="D404" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="B405" t="s">
         <v>18</v>
       </c>
       <c r="C405" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="D405" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="B406" t="s">
         <v>18</v>
       </c>
       <c r="C406" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="D406" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="B407" t="s">
         <v>9</v>
       </c>
       <c r="C407" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D407" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E407" t="s">
         <v>32</v>
@@ -13113,100 +13161,100 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="B408" t="s">
         <v>18</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="D408" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="B409" t="s">
         <v>18</v>
       </c>
       <c r="C409" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="D409" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="B410" t="s">
         <v>18</v>
       </c>
       <c r="C410" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="D410" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="B411" t="s">
         <v>18</v>
       </c>
       <c r="C411" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="D411" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="B412" t="s">
         <v>12</v>
       </c>
       <c r="C412" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="D412" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="B413" t="s">
         <v>18</v>
       </c>
       <c r="C413" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="D413" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="B414" t="s">
         <v>9</v>
       </c>
       <c r="C414" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D414" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E414" t="s">
         <v>32</v>
@@ -13214,16 +13262,16 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="B415" t="s">
         <v>9</v>
       </c>
       <c r="C415" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="D415" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E415" t="s">
         <v>34</v>
@@ -13231,30 +13279,30 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="B416" t="s">
         <v>12</v>
       </c>
       <c r="C416" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D416" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="B417" t="s">
         <v>9</v>
       </c>
       <c r="C417" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="D417" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E417" t="s">
         <v>32</v>
@@ -13262,13 +13310,16 @@
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="B418" t="s">
         <v>9</v>
       </c>
       <c r="C418" t="s">
-        <v>1675</v>
+        <v>1673</v>
+      </c>
+      <c r="D418" t="s">
+        <v>1601</v>
       </c>
       <c r="E418" t="s">
         <v>32</v>
@@ -13276,24 +13327,30 @@
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="B419" t="s">
         <v>18</v>
       </c>
       <c r="C419" t="s">
-        <v>1676</v>
+        <v>1674</v>
+      </c>
+      <c r="D419" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="B420" t="s">
         <v>18</v>
       </c>
       <c r="C420" t="s">
-        <v>1678</v>
+        <v>1676</v>
+      </c>
+      <c r="D420" t="s">
+        <v>1601</v>
       </c>
       <c r="H420" t="s">
         <v>1343</v>
@@ -13301,24 +13358,30 @@
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="B421" t="s">
         <v>18</v>
       </c>
       <c r="C421" t="s">
-        <v>1680</v>
+        <v>1678</v>
+      </c>
+      <c r="D421" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="B422" t="s">
         <v>9</v>
       </c>
       <c r="C422" t="s">
-        <v>1682</v>
+        <v>1680</v>
+      </c>
+      <c r="D422" t="s">
+        <v>1601</v>
       </c>
       <c r="E422" t="s">
         <v>32</v>
@@ -13326,7 +13389,7 @@
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="B423" t="s">
         <v>13</v>
@@ -13334,41 +13397,53 @@
       <c r="C423" t="s">
         <v>260</v>
       </c>
+      <c r="D423" t="s">
+        <v>1601</v>
+      </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="B424" t="s">
         <v>18</v>
       </c>
       <c r="C424" t="s">
-        <v>1685</v>
+        <v>1683</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="B425" t="s">
         <v>12</v>
       </c>
       <c r="C425" t="s">
-        <v>1687</v>
+        <v>1685</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1601</v>
       </c>
       <c r="H425" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="B426" t="s">
         <v>9</v>
       </c>
       <c r="C426" t="s">
-        <v>1690</v>
+        <v>1688</v>
+      </c>
+      <c r="D426" t="s">
+        <v>1601</v>
       </c>
       <c r="E426" t="s">
         <v>33</v>
@@ -13376,27 +13451,33 @@
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B427" t="s">
+        <v>18</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D427" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H427" t="s">
         <v>1691</v>
-      </c>
-      <c r="B427" t="s">
-        <v>18</v>
-      </c>
-      <c r="C427" t="s">
-        <v>1692</v>
-      </c>
-      <c r="H427" t="s">
-        <v>1693</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="B428" t="s">
         <v>9</v>
       </c>
       <c r="C428" t="s">
-        <v>1695</v>
+        <v>1693</v>
+      </c>
+      <c r="D428" t="s">
+        <v>1601</v>
       </c>
       <c r="E428" t="s">
         <v>34</v>
@@ -13404,46 +13485,58 @@
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="B429" t="s">
         <v>18</v>
       </c>
       <c r="C429" t="s">
-        <v>1697</v>
+        <v>1695</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="B430" t="s">
         <v>18</v>
       </c>
       <c r="C430" t="s">
-        <v>1699</v>
+        <v>1697</v>
+      </c>
+      <c r="D430" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="B431" t="s">
         <v>18</v>
       </c>
       <c r="C431" t="s">
-        <v>1701</v>
+        <v>1699</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="B432" t="s">
         <v>9</v>
       </c>
       <c r="C432" t="s">
-        <v>1703</v>
+        <v>1701</v>
+      </c>
+      <c r="D432" t="s">
+        <v>1601</v>
       </c>
       <c r="E432" t="s">
         <v>32</v>
@@ -13451,13 +13544,16 @@
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="B433" t="s">
         <v>13</v>
       </c>
       <c r="C433" t="s">
-        <v>1705</v>
+        <v>1703</v>
+      </c>
+      <c r="D433" t="s">
+        <v>1601</v>
       </c>
       <c r="H433" t="s">
         <v>1305</v>
@@ -13465,38 +13561,47 @@
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="B434" t="s">
         <v>12</v>
       </c>
       <c r="C434" t="s">
-        <v>1707</v>
+        <v>1705</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1601</v>
       </c>
       <c r="H434" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="B435" t="s">
         <v>18</v>
       </c>
       <c r="C435" t="s">
-        <v>1710</v>
+        <v>1708</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B436" t="s">
         <v>18</v>
       </c>
       <c r="C436" t="s">
-        <v>1522</v>
+        <v>1521</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
@@ -13507,26 +13612,32 @@
         <v>18</v>
       </c>
       <c r="C437" t="s">
-        <v>1711</v>
+        <v>1709</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="B438" t="s">
         <v>13</v>
       </c>
       <c r="C438" t="s">
-        <v>1713</v>
+        <v>1711</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1601</v>
       </c>
       <c r="H438" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B439" t="s">
         <v>13</v>
@@ -13534,8 +13645,132 @@
       <c r="C439" t="s">
         <v>122</v>
       </c>
+      <c r="D439" t="s">
+        <v>1601</v>
+      </c>
       <c r="H439" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B440" t="s">
+        <v>18</v>
+      </c>
+      <c r="C440" t="s">
         <v>1716</v>
+      </c>
+      <c r="D440" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B441" t="s">
+        <v>13</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D441" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B442" t="s">
+        <v>9</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D442" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E442" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B443" t="s">
+        <v>18</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D443" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B444" t="s">
+        <v>12</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B445" t="s">
+        <v>9</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D445" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E445" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B446" t="s">
+        <v>12</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D446" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B447" t="s">
+        <v>9</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D447" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E447" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
